--- a/natmiOut/YoungD2/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>697.854451786403</v>
+        <v>943.8308816666668</v>
       </c>
       <c r="H2">
-        <v>697.854451786403</v>
+        <v>2831.492645</v>
       </c>
       <c r="I2">
-        <v>0.06240967568053586</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="J2">
-        <v>0.06240967568053586</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.397215550733099</v>
+        <v>0.2621013333333334</v>
       </c>
       <c r="N2">
-        <v>0.397215550733099</v>
+        <v>0.786304</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3427816130837895</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3427816130837895</v>
       </c>
       <c r="Q2">
-        <v>277.198640397881</v>
+        <v>247.3793325260089</v>
       </c>
       <c r="R2">
-        <v>277.198640397881</v>
+        <v>2226.41399273408</v>
       </c>
       <c r="S2">
-        <v>0.06240967568053586</v>
+        <v>0.02688518483794012</v>
       </c>
       <c r="T2">
-        <v>0.06240967568053586</v>
+        <v>0.02688518483794012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>345.346973678903</v>
+        <v>943.8308816666668</v>
       </c>
       <c r="H3">
-        <v>345.346973678903</v>
+        <v>2831.492645</v>
       </c>
       <c r="I3">
-        <v>0.03088465305248458</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="J3">
-        <v>0.03088465305248458</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.397215550733099</v>
+        <v>0.4317903333333333</v>
       </c>
       <c r="N3">
-        <v>0.397215550733099</v>
+        <v>1.295371</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5647044411855484</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5647044411855484</v>
       </c>
       <c r="Q3">
-        <v>137.1771883438745</v>
+        <v>407.5370510051439</v>
       </c>
       <c r="R3">
-        <v>137.1771883438745</v>
+        <v>3667.833459046295</v>
       </c>
       <c r="S3">
-        <v>0.03088465305248458</v>
+        <v>0.04429112502124793</v>
       </c>
       <c r="T3">
-        <v>0.03088465305248458</v>
+        <v>0.04429112502124793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3646.83086133388</v>
+        <v>943.8308816666668</v>
       </c>
       <c r="H4">
-        <v>3646.83086133388</v>
+        <v>2831.492645</v>
       </c>
       <c r="I4">
-        <v>0.3261389688566162</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="J4">
-        <v>0.3261389688566162</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.397215550733099</v>
+        <v>0.043293</v>
       </c>
       <c r="N4">
-        <v>0.397215550733099</v>
+        <v>0.129879</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.05661949211209595</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.05661949211209596</v>
       </c>
       <c r="Q4">
-        <v>1448.577929015199</v>
+        <v>40.861270359995</v>
       </c>
       <c r="R4">
-        <v>1448.577929015199</v>
+        <v>367.751433239955</v>
       </c>
       <c r="S4">
-        <v>0.3261389688566162</v>
+        <v>0.004440802694081202</v>
       </c>
       <c r="T4">
-        <v>0.3261389688566162</v>
+        <v>0.004440802694081202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4530.55059712205</v>
+        <v>943.8308816666668</v>
       </c>
       <c r="H5">
-        <v>4530.55059712205</v>
+        <v>2831.492645</v>
       </c>
       <c r="I5">
-        <v>0.4051707239193603</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="J5">
-        <v>0.4051707239193603</v>
+        <v>0.07843240072322173</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.397215550733099</v>
+        <v>0.027446</v>
       </c>
       <c r="N5">
-        <v>0.397215550733099</v>
+        <v>0.08233799999999999</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.03589445361856618</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.03589445361856618</v>
       </c>
       <c r="Q5">
-        <v>1799.605150560006</v>
+        <v>25.90438237822334</v>
       </c>
       <c r="R5">
-        <v>1799.605150560006</v>
+        <v>233.13944140401</v>
       </c>
       <c r="S5">
-        <v>0.4051707239193603</v>
+        <v>0.002815288169952479</v>
       </c>
       <c r="T5">
-        <v>0.4051707239193603</v>
+        <v>0.002815288169952479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1784.83457307107</v>
+        <v>357.507202</v>
       </c>
       <c r="H6">
-        <v>1784.83457307107</v>
+        <v>1072.521606</v>
       </c>
       <c r="I6">
-        <v>0.1596191678130433</v>
+        <v>0.02970886911348672</v>
       </c>
       <c r="J6">
-        <v>0.1596191678130433</v>
+        <v>0.02970886911348672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.397215550733099</v>
+        <v>0.2621013333333334</v>
       </c>
       <c r="N6">
-        <v>0.397215550733099</v>
+        <v>0.786304</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3427816130837895</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.3427816130837895</v>
       </c>
       <c r="Q6">
-        <v>708.9640479099007</v>
+        <v>93.70311432046934</v>
       </c>
       <c r="R6">
-        <v>708.9640479099007</v>
+        <v>843.3280288842241</v>
       </c>
       <c r="S6">
-        <v>0.1596191678130433</v>
+        <v>0.01018365407761615</v>
       </c>
       <c r="T6">
-        <v>0.1596191678130433</v>
+        <v>0.01018365407761615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,1168 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>176.413632125943</v>
+        <v>357.507202</v>
       </c>
       <c r="H7">
-        <v>176.413632125943</v>
+        <v>1072.521606</v>
       </c>
       <c r="I7">
-        <v>0.01577681067795974</v>
+        <v>0.02970886911348672</v>
       </c>
       <c r="J7">
-        <v>0.01577681067795974</v>
+        <v>0.02970886911348672</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.397215550733099</v>
+        <v>0.4317903333333333</v>
       </c>
       <c r="N7">
-        <v>0.397215550733099</v>
+        <v>1.295371</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.5647044411855484</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.5647044411855484</v>
       </c>
       <c r="Q7">
-        <v>70.07423804173277</v>
+        <v>154.3681539206473</v>
       </c>
       <c r="R7">
-        <v>70.07423804173277</v>
+        <v>1389.313385285826</v>
       </c>
       <c r="S7">
-        <v>0.01577681067795974</v>
+        <v>0.01677673033098612</v>
       </c>
       <c r="T7">
-        <v>0.01577681067795974</v>
+        <v>0.01677673033098612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>357.507202</v>
+      </c>
+      <c r="H8">
+        <v>1072.521606</v>
+      </c>
+      <c r="I8">
+        <v>0.02970886911348672</v>
+      </c>
+      <c r="J8">
+        <v>0.02970886911348672</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.043293</v>
+      </c>
+      <c r="N8">
+        <v>0.129879</v>
+      </c>
+      <c r="O8">
+        <v>0.05661949211209595</v>
+      </c>
+      <c r="P8">
+        <v>0.05661949211209596</v>
+      </c>
+      <c r="Q8">
+        <v>15.477559296186</v>
+      </c>
+      <c r="R8">
+        <v>139.298033665674</v>
+      </c>
+      <c r="S8">
+        <v>0.001682101080430353</v>
+      </c>
+      <c r="T8">
+        <v>0.001682101080430353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>357.507202</v>
+      </c>
+      <c r="H9">
+        <v>1072.521606</v>
+      </c>
+      <c r="I9">
+        <v>0.02970886911348672</v>
+      </c>
+      <c r="J9">
+        <v>0.02970886911348672</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.027446</v>
+      </c>
+      <c r="N9">
+        <v>0.08233799999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="P9">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="Q9">
+        <v>9.812142666091999</v>
+      </c>
+      <c r="R9">
+        <v>88.30928399482799</v>
+      </c>
+      <c r="S9">
+        <v>0.001066383624454102</v>
+      </c>
+      <c r="T9">
+        <v>0.001066383624454102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4079.623331666667</v>
+      </c>
+      <c r="H10">
+        <v>12238.869995</v>
+      </c>
+      <c r="I10">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="J10">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2621013333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.786304</v>
+      </c>
+      <c r="O10">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="P10">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="Q10">
+        <v>1069.274714727609</v>
+      </c>
+      <c r="R10">
+        <v>9623.47243254848</v>
+      </c>
+      <c r="S10">
+        <v>0.116208771583475</v>
+      </c>
+      <c r="T10">
+        <v>0.1162087715834749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4079.623331666667</v>
+      </c>
+      <c r="H11">
+        <v>12238.869995</v>
+      </c>
+      <c r="I11">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="J11">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4317903333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.295371</v>
+      </c>
+      <c r="O11">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="P11">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="Q11">
+        <v>1761.541918254794</v>
+      </c>
+      <c r="R11">
+        <v>15853.87726429314</v>
+      </c>
+      <c r="S11">
+        <v>0.1914443684056771</v>
+      </c>
+      <c r="T11">
+        <v>0.1914443684056771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4079.623331666667</v>
+      </c>
+      <c r="H12">
+        <v>12238.869995</v>
+      </c>
+      <c r="I12">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="J12">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.043293</v>
+      </c>
+      <c r="N12">
+        <v>0.129879</v>
+      </c>
+      <c r="O12">
+        <v>0.05661949211209595</v>
+      </c>
+      <c r="P12">
+        <v>0.05661949211209596</v>
+      </c>
+      <c r="Q12">
+        <v>176.619132897845</v>
+      </c>
+      <c r="R12">
+        <v>1589.572196080605</v>
+      </c>
+      <c r="S12">
+        <v>0.01919496663439349</v>
+      </c>
+      <c r="T12">
+        <v>0.01919496663439349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4079.623331666667</v>
+      </c>
+      <c r="H13">
+        <v>12238.869995</v>
+      </c>
+      <c r="I13">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="J13">
+        <v>0.3390169342457376</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.027446</v>
+      </c>
+      <c r="N13">
+        <v>0.08233799999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="P13">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="Q13">
+        <v>111.9693419609233</v>
+      </c>
+      <c r="R13">
+        <v>1007.72407764831</v>
+      </c>
+      <c r="S13">
+        <v>0.01216882762219213</v>
+      </c>
+      <c r="T13">
+        <v>0.01216882762219213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4643.938395</v>
+      </c>
+      <c r="H14">
+        <v>13931.815185</v>
+      </c>
+      <c r="I14">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="J14">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2621013333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.786304</v>
+      </c>
+      <c r="O14">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="P14">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="Q14">
+        <v>1217.18244524736</v>
+      </c>
+      <c r="R14">
+        <v>10954.64200722624</v>
+      </c>
+      <c r="S14">
+        <v>0.1322833831259152</v>
+      </c>
+      <c r="T14">
+        <v>0.1322833831259152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4643.938395</v>
+      </c>
+      <c r="H15">
+        <v>13931.815185</v>
+      </c>
+      <c r="I15">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="J15">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4317903333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.295371</v>
+      </c>
+      <c r="O15">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="P15">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="Q15">
+        <v>2005.207707556515</v>
+      </c>
+      <c r="R15">
+        <v>18046.86936800863</v>
+      </c>
+      <c r="S15">
+        <v>0.2179259653813282</v>
+      </c>
+      <c r="T15">
+        <v>0.2179259653813281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4643.938395</v>
+      </c>
+      <c r="H16">
+        <v>13931.815185</v>
+      </c>
+      <c r="I16">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="J16">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.043293</v>
+      </c>
+      <c r="N16">
+        <v>0.129879</v>
+      </c>
+      <c r="O16">
+        <v>0.05661949211209595</v>
+      </c>
+      <c r="P16">
+        <v>0.05661949211209596</v>
+      </c>
+      <c r="Q16">
+        <v>201.050024934735</v>
+      </c>
+      <c r="R16">
+        <v>1809.450224412615</v>
+      </c>
+      <c r="S16">
+        <v>0.02185011588013127</v>
+      </c>
+      <c r="T16">
+        <v>0.02185011588013127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4643.938395</v>
+      </c>
+      <c r="H17">
+        <v>13931.815185</v>
+      </c>
+      <c r="I17">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="J17">
+        <v>0.3859115485683295</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.027446</v>
+      </c>
+      <c r="N17">
+        <v>0.08233799999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="P17">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="Q17">
+        <v>127.45753318917</v>
+      </c>
+      <c r="R17">
+        <v>1147.11779870253</v>
+      </c>
+      <c r="S17">
+        <v>0.01385208418095495</v>
+      </c>
+      <c r="T17">
+        <v>0.01385208418095495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1815.075195333334</v>
+      </c>
+      <c r="H18">
+        <v>5445.225586</v>
+      </c>
+      <c r="I18">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="J18">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2621013333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.786304</v>
+      </c>
+      <c r="O18">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="P18">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="Q18">
+        <v>475.7336287971272</v>
+      </c>
+      <c r="R18">
+        <v>4281.602659174145</v>
+      </c>
+      <c r="S18">
+        <v>0.05170272881421905</v>
+      </c>
+      <c r="T18">
+        <v>0.05170272881421905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1815.075195333334</v>
+      </c>
+      <c r="H19">
+        <v>5445.225586</v>
+      </c>
+      <c r="I19">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="J19">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4317903333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.295371</v>
+      </c>
+      <c r="O19">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="P19">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="Q19">
+        <v>783.7319236180451</v>
+      </c>
+      <c r="R19">
+        <v>7053.587312562406</v>
+      </c>
+      <c r="S19">
+        <v>0.08517598222418268</v>
+      </c>
+      <c r="T19">
+        <v>0.08517598222418268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1815.075195333334</v>
+      </c>
+      <c r="H20">
+        <v>5445.225586</v>
+      </c>
+      <c r="I20">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="J20">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.043293</v>
+      </c>
+      <c r="N20">
+        <v>0.129879</v>
+      </c>
+      <c r="O20">
+        <v>0.05661949211209595</v>
+      </c>
+      <c r="P20">
+        <v>0.05661949211209596</v>
+      </c>
+      <c r="Q20">
+        <v>78.58005043156601</v>
+      </c>
+      <c r="R20">
+        <v>707.220453884094</v>
+      </c>
+      <c r="S20">
+        <v>0.0085400795565862</v>
+      </c>
+      <c r="T20">
+        <v>0.008540079556586202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1815.075195333334</v>
+      </c>
+      <c r="H21">
+        <v>5445.225586</v>
+      </c>
+      <c r="I21">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="J21">
+        <v>0.1508328534575769</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.027446</v>
+      </c>
+      <c r="N21">
+        <v>0.08233799999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="P21">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="Q21">
+        <v>49.81655381111867</v>
+      </c>
+      <c r="R21">
+        <v>448.348984300068</v>
+      </c>
+      <c r="S21">
+        <v>0.005414062862588984</v>
+      </c>
+      <c r="T21">
+        <v>0.005414062862588984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>193.7109833333333</v>
+      </c>
+      <c r="H22">
+        <v>581.1329499999999</v>
+      </c>
+      <c r="I22">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="J22">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2621013333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.786304</v>
+      </c>
+      <c r="O22">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="P22">
+        <v>0.3427816130837895</v>
+      </c>
+      <c r="Q22">
+        <v>50.77190701297777</v>
+      </c>
+      <c r="R22">
+        <v>456.9471631168</v>
+      </c>
+      <c r="S22">
+        <v>0.005517890644624087</v>
+      </c>
+      <c r="T22">
+        <v>0.005517890644624087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>193.7109833333333</v>
+      </c>
+      <c r="H23">
+        <v>581.1329499999999</v>
+      </c>
+      <c r="I23">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="J23">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4317903333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.295371</v>
+      </c>
+      <c r="O23">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="P23">
+        <v>0.5647044411855484</v>
+      </c>
+      <c r="Q23">
+        <v>83.64253006382775</v>
+      </c>
+      <c r="R23">
+        <v>752.7827705744498</v>
+      </c>
+      <c r="S23">
+        <v>0.00909026982212649</v>
+      </c>
+      <c r="T23">
+        <v>0.00909026982212649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>193.7109833333333</v>
+      </c>
+      <c r="H24">
+        <v>581.1329499999999</v>
+      </c>
+      <c r="I24">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="J24">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.043293</v>
+      </c>
+      <c r="N24">
+        <v>0.129879</v>
+      </c>
+      <c r="O24">
+        <v>0.05661949211209595</v>
+      </c>
+      <c r="P24">
+        <v>0.05661949211209596</v>
+      </c>
+      <c r="Q24">
+        <v>8.386329601449999</v>
+      </c>
+      <c r="R24">
+        <v>75.47696641304999</v>
+      </c>
+      <c r="S24">
+        <v>0.0009114262664734399</v>
+      </c>
+      <c r="T24">
+        <v>0.00091142626647344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>193.7109833333333</v>
+      </c>
+      <c r="H25">
+        <v>581.1329499999999</v>
+      </c>
+      <c r="I25">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="J25">
+        <v>0.01609739389164755</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.027446</v>
+      </c>
+      <c r="N25">
+        <v>0.08233799999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="P25">
+        <v>0.03589445361856618</v>
+      </c>
+      <c r="Q25">
+        <v>5.316591648566665</v>
+      </c>
+      <c r="R25">
+        <v>47.84932483709999</v>
+      </c>
+      <c r="S25">
+        <v>0.0005778071584235335</v>
+      </c>
+      <c r="T25">
+        <v>0.0005778071584235335</v>
       </c>
     </row>
   </sheetData>
